--- a/published-data/fonds-solidarite/fds-2022-06-14/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-14/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>105832</v>
+        <v>105833</v>
       </c>
       <c r="D69" t="n">
         <v>22855</v>
       </c>
       <c r="E69" t="n">
-        <v>186654215</v>
+        <v>186659535</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>14643</v>
+        <v>14647</v>
       </c>
       <c r="D121" t="n">
         <v>2286</v>
       </c>
       <c r="E121" t="n">
-        <v>168858937</v>
+        <v>169549158</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -6673,13 +6673,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D123" t="n">
         <v>242</v>
       </c>
       <c r="E123" t="n">
-        <v>3796100</v>
+        <v>3797642</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -7030,13 +7030,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>22275</v>
+        <v>22276</v>
       </c>
       <c r="D130" t="n">
         <v>4180</v>
       </c>
       <c r="E130" t="n">
-        <v>116853588</v>
+        <v>116865350</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -15649,13 +15649,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>9033</v>
+        <v>9034</v>
       </c>
       <c r="D299" t="n">
         <v>1438</v>
       </c>
       <c r="E299" t="n">
-        <v>50072268</v>
+        <v>50192277</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -19882,13 +19882,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>25393</v>
+        <v>25394</v>
       </c>
       <c r="D382" t="n">
         <v>5083</v>
       </c>
       <c r="E382" t="n">
-        <v>129197360</v>
+        <v>129223594</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18875</v>
+        <v>18876</v>
       </c>
       <c r="D399" t="n">
         <v>3383</v>
       </c>
       <c r="E399" t="n">
-        <v>75303711</v>
+        <v>75305211</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -23809,13 +23809,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>88343</v>
+        <v>88345</v>
       </c>
       <c r="D459" t="n">
         <v>16394</v>
       </c>
       <c r="E459" t="n">
-        <v>151573170</v>
+        <v>151574915</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -24574,13 +24574,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>74996</v>
+        <v>74997</v>
       </c>
       <c r="D474" t="n">
         <v>11550</v>
       </c>
       <c r="E474" t="n">
-        <v>435450166</v>
+        <v>435453342</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416792</v>
+        <v>416802</v>
       </c>
       <c r="D477" t="n">
         <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725391121</v>
+        <v>725427302</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292166</v>
+        <v>292178</v>
       </c>
       <c r="D484" t="n">
         <v>42567</v>
       </c>
       <c r="E484" t="n">
-        <v>1771833259</v>
+        <v>1772035677</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>62193</v>
+        <v>62194</v>
       </c>
       <c r="D509" t="n">
         <v>11278</v>
       </c>
       <c r="E509" t="n">
-        <v>299103395</v>
+        <v>299163826</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56110</v>
+        <v>56111</v>
       </c>
       <c r="D520" t="n">
         <v>8770</v>
       </c>
       <c r="E520" t="n">
-        <v>254093530</v>
+        <v>254105698</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -27634,13 +27634,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="D534" t="n">
         <v>8566</v>
       </c>
       <c r="E534" t="n">
-        <v>220226017</v>
+        <v>220264122</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -28705,13 +28705,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>18462</v>
+        <v>18465</v>
       </c>
       <c r="D555" t="n">
         <v>3296</v>
       </c>
       <c r="E555" t="n">
-        <v>73574082</v>
+        <v>74174082</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -48646,13 +48646,13 @@
         </is>
       </c>
       <c r="C946" t="n">
-        <v>29832</v>
+        <v>29833</v>
       </c>
       <c r="D946" t="n">
         <v>5384</v>
       </c>
       <c r="E946" t="n">
-        <v>141958150</v>
+        <v>141963607</v>
       </c>
       <c r="F946" t="inlineStr">
         <is>
